--- a/patterns/source-office-laptop/master_pattern_v7.xlsx
+++ b/patterns/source-office-laptop/master_pattern_v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.work\0.rakeshkosambia-ge\required\patterns\source-office-laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DFCF1A-E733-455F-9C54-33608903A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA53A46-E611-4E2B-8C9F-C3B125EB1915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B1104C41-919B-4CF8-8D94-5FAD4AD02440}"/>
   </bookViews>
@@ -3283,7 +3283,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3381,9 +3381,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3391,7 +3388,7 @@
     <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3796,98 +3793,98 @@
     <col min="22" max="22" width="34" customWidth="1"/>
     <col min="23" max="23" width="36.7109375" customWidth="1"/>
     <col min="24" max="24" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="24.140625" customWidth="1"/>
     <col min="29" max="29" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>634</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>635</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>852</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>647</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>637</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="36" t="s">
         <v>641</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="36" t="s">
         <v>643</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="35" t="s">
         <v>645</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AB1" s="35" t="s">
         <v>752</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="35" t="s">
         <v>647</v>
       </c>
     </row>
@@ -3931,10 +3928,10 @@
       <c r="M2" s="32">
         <v>4</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="32">
         <v>8</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="32">
         <v>1</v>
       </c>
       <c r="P2" s="32" t="s">
@@ -3976,7 +3973,7 @@
       <c r="AB2" s="32" t="s">
         <v>753</v>
       </c>
-      <c r="AC2" s="34">
+      <c r="AC2" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4020,10 +4017,10 @@
       <c r="M3" s="32">
         <v>0.5</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="32">
         <v>10</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="32">
         <v>1037</v>
       </c>
       <c r="P3" s="32" t="s">
@@ -4065,7 +4062,7 @@
       <c r="AB3" s="32" t="s">
         <v>754</v>
       </c>
-      <c r="AC3" s="34">
+      <c r="AC3" s="33">
         <v>1037</v>
       </c>
     </row>
@@ -4109,10 +4106,10 @@
       <c r="M4" s="32">
         <v>1.5</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="32">
         <v>18</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="32">
         <v>224</v>
       </c>
       <c r="P4" s="32" t="s">
@@ -4154,7 +4151,7 @@
       <c r="AB4" s="32" t="s">
         <v>760</v>
       </c>
-      <c r="AC4" s="34">
+      <c r="AC4" s="33">
         <v>224</v>
       </c>
     </row>
@@ -4198,10 +4195,10 @@
       <c r="M5" s="32">
         <v>1.5</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="32">
         <v>19</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="32">
         <v>13</v>
       </c>
       <c r="P5" s="32" t="s">
@@ -4243,7 +4240,7 @@
       <c r="AB5" s="32" t="s">
         <v>761</v>
       </c>
-      <c r="AC5" s="34">
+      <c r="AC5" s="33">
         <v>13</v>
       </c>
     </row>
@@ -4287,10 +4284,10 @@
       <c r="M6" s="32">
         <v>1.5</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="32">
         <v>20</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="32">
         <v>3</v>
       </c>
       <c r="P6" s="32" t="s">
@@ -4332,7 +4329,7 @@
       <c r="AB6" s="32" t="s">
         <v>762</v>
       </c>
-      <c r="AC6" s="34">
+      <c r="AC6" s="33">
         <v>3</v>
       </c>
     </row>
@@ -4376,10 +4373,10 @@
       <c r="M7" s="32">
         <v>0.75</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="32">
         <v>16</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="32">
         <v>526</v>
       </c>
       <c r="P7" s="32" t="s">
@@ -4421,7 +4418,7 @@
       <c r="AB7" s="32" t="s">
         <v>763</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7" s="33">
         <v>526</v>
       </c>
     </row>
@@ -4465,10 +4462,10 @@
       <c r="M8" s="32">
         <v>0.5</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="32">
         <v>5</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="32">
         <v>1001</v>
       </c>
       <c r="P8" s="32" t="s">
@@ -4510,7 +4507,7 @@
       <c r="AB8" s="32" t="s">
         <v>755</v>
       </c>
-      <c r="AC8" s="34">
+      <c r="AC8" s="33">
         <v>1001</v>
       </c>
     </row>
@@ -4554,10 +4551,10 @@
       <c r="M9" s="32">
         <v>1.5</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="32">
         <v>15</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="32">
         <v>911</v>
       </c>
       <c r="P9" s="32" t="s">
@@ -4599,7 +4596,7 @@
       <c r="AB9" s="32" t="s">
         <v>764</v>
       </c>
-      <c r="AC9" s="34">
+      <c r="AC9" s="33">
         <v>911</v>
       </c>
     </row>
@@ -4643,10 +4640,10 @@
       <c r="M10" s="32">
         <v>0.5</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="32">
         <v>4</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="32">
         <v>168</v>
       </c>
       <c r="P10" s="32" t="s">
@@ -4688,7 +4685,7 @@
       <c r="AB10" s="32" t="s">
         <v>756</v>
       </c>
-      <c r="AC10" s="34">
+      <c r="AC10" s="33">
         <v>168</v>
       </c>
     </row>
@@ -4732,10 +4729,10 @@
       <c r="M11" s="32">
         <v>0.5</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="32">
         <v>6</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="32">
         <v>4830</v>
       </c>
       <c r="P11" s="32" t="s">
@@ -4777,7 +4774,7 @@
       <c r="AB11" s="32" t="s">
         <v>757</v>
       </c>
-      <c r="AC11" s="34">
+      <c r="AC11" s="33">
         <v>4830</v>
       </c>
     </row>
@@ -4821,10 +4818,10 @@
       <c r="M12" s="32">
         <v>0.4</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="32">
         <v>13</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="32">
         <v>25025</v>
       </c>
       <c r="P12" s="32" t="s">
@@ -4866,7 +4863,7 @@
       <c r="AB12" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="AC12" s="34">
+      <c r="AC12" s="33">
         <v>25025</v>
       </c>
     </row>
@@ -4910,10 +4907,10 @@
       <c r="M13" s="32">
         <v>0.1</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="32">
         <v>2</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="32">
         <v>1</v>
       </c>
       <c r="P13" s="32" t="s">
@@ -4955,7 +4952,7 @@
       <c r="AB13" s="32" t="s">
         <v>765</v>
       </c>
-      <c r="AC13" s="34">
+      <c r="AC13" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4999,10 +4996,10 @@
       <c r="M14" s="32">
         <v>0.4</v>
       </c>
-      <c r="N14" s="33">
-        <v>12</v>
-      </c>
-      <c r="O14" s="33">
+      <c r="N14" s="32">
+        <v>12</v>
+      </c>
+      <c r="O14" s="32">
         <v>7</v>
       </c>
       <c r="P14" s="32" t="s">
@@ -5044,7 +5041,7 @@
       <c r="AB14" s="32" t="s">
         <v>759</v>
       </c>
-      <c r="AC14" s="34">
+      <c r="AC14" s="33">
         <v>7</v>
       </c>
     </row>
@@ -5088,10 +5085,10 @@
       <c r="M15" s="32">
         <v>3</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="32">
         <v>84</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="32">
         <v>1</v>
       </c>
       <c r="P15" s="32" t="s">
@@ -5133,7 +5130,7 @@
       <c r="AB15" s="32" t="s">
         <v>766</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5177,10 +5174,10 @@
       <c r="M16" s="32">
         <v>1.5</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="32">
         <v>17</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="32">
         <v>9</v>
       </c>
       <c r="P16" s="32" t="s">
@@ -5222,7 +5219,7 @@
       <c r="AB16" s="32" t="s">
         <v>767</v>
       </c>
-      <c r="AC16" s="34">
+      <c r="AC16" s="33">
         <v>9</v>
       </c>
     </row>
@@ -5266,10 +5263,10 @@
       <c r="M17" s="32">
         <v>1.5</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="32">
         <v>85</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="32">
         <v>94847</v>
       </c>
       <c r="P17" s="32" t="s">
@@ -5311,7 +5308,7 @@
       <c r="AB17" s="32" t="s">
         <v>768</v>
       </c>
-      <c r="AC17" s="34">
+      <c r="AC17" s="33">
         <v>94847</v>
       </c>
     </row>
@@ -5355,10 +5352,10 @@
       <c r="M18" s="32">
         <v>0.25</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="32">
         <v>1</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="32">
         <v>247</v>
       </c>
       <c r="P18" s="32" t="s">
@@ -5400,7 +5397,7 @@
       <c r="AB18" s="32" t="s">
         <v>769</v>
       </c>
-      <c r="AC18" s="34">
+      <c r="AC18" s="33">
         <v>247</v>
       </c>
     </row>
@@ -5444,10 +5441,10 @@
       <c r="M19" s="32">
         <v>1.5</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="32">
         <v>21</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="32">
         <v>9</v>
       </c>
       <c r="P19" s="32" t="s">
@@ -5489,7 +5486,7 @@
       <c r="AB19" s="32" t="s">
         <v>770</v>
       </c>
-      <c r="AC19" s="34">
+      <c r="AC19" s="33">
         <v>9</v>
       </c>
     </row>
@@ -5533,10 +5530,10 @@
       <c r="M20" s="32">
         <v>2</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="32">
         <v>87</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="32">
         <v>26</v>
       </c>
       <c r="P20" s="32" t="s">
@@ -5578,7 +5575,7 @@
       <c r="AB20" s="32" t="s">
         <v>771</v>
       </c>
-      <c r="AC20" s="34">
+      <c r="AC20" s="33">
         <v>26</v>
       </c>
     </row>
@@ -5622,10 +5619,10 @@
       <c r="M21" s="32">
         <v>0.5</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="32">
         <v>24</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="32">
         <v>179</v>
       </c>
       <c r="P21" s="32" t="s">
@@ -5667,7 +5664,7 @@
       <c r="AB21" s="32" t="s">
         <v>772</v>
       </c>
-      <c r="AC21" s="34">
+      <c r="AC21" s="33">
         <v>179</v>
       </c>
     </row>
@@ -5711,10 +5708,10 @@
       <c r="M22" s="32">
         <v>4</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="32">
         <v>9</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="32">
         <v>1</v>
       </c>
       <c r="P22" s="32" t="s">
@@ -5756,7 +5753,7 @@
       <c r="AB22" s="32" t="s">
         <v>773</v>
       </c>
-      <c r="AC22" s="34">
+      <c r="AC22" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5800,10 +5797,10 @@
       <c r="M23" s="32">
         <v>0.5</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="32">
         <v>23</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="32">
         <v>160</v>
       </c>
       <c r="P23" s="32" t="s">
@@ -5845,7 +5842,7 @@
       <c r="AB23" s="32" t="s">
         <v>774</v>
       </c>
-      <c r="AC23" s="34">
+      <c r="AC23" s="33">
         <v>160</v>
       </c>
     </row>
@@ -5889,10 +5886,10 @@
       <c r="M24" s="32">
         <v>0.5</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="32">
         <v>96</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="32">
         <v>2513</v>
       </c>
       <c r="P24" s="32" t="s">
@@ -5934,7 +5931,7 @@
       <c r="AB24" s="32" t="s">
         <v>775</v>
       </c>
-      <c r="AC24" s="34">
+      <c r="AC24" s="33">
         <v>2513</v>
       </c>
     </row>
@@ -5978,10 +5975,10 @@
       <c r="M25" s="32">
         <v>0.5</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="32">
         <v>81</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="32">
         <v>2</v>
       </c>
       <c r="P25" s="32" t="s">
@@ -6023,7 +6020,7 @@
       <c r="AB25" s="32" t="s">
         <v>776</v>
       </c>
-      <c r="AC25" s="34">
+      <c r="AC25" s="33">
         <v>2</v>
       </c>
     </row>
@@ -6067,10 +6064,10 @@
       <c r="M26" s="32">
         <v>1</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="32">
         <v>42</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="32">
         <v>1</v>
       </c>
       <c r="P26" s="32" t="s">
@@ -6112,7 +6109,7 @@
       <c r="AB26" s="32" t="s">
         <v>777</v>
       </c>
-      <c r="AC26" s="34">
+      <c r="AC26" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6156,10 +6153,10 @@
       <c r="M27" s="32">
         <v>1</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="32">
         <v>43</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="32">
         <v>1</v>
       </c>
       <c r="P27" s="32" t="s">
@@ -6201,7 +6198,7 @@
       <c r="AB27" s="32" t="s">
         <v>778</v>
       </c>
-      <c r="AC27" s="34">
+      <c r="AC27" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6245,10 +6242,10 @@
       <c r="M28" s="32">
         <v>0.5</v>
       </c>
-      <c r="N28" s="33">
+      <c r="N28" s="32">
         <v>113</v>
       </c>
-      <c r="O28" s="33">
+      <c r="O28" s="32">
         <v>5</v>
       </c>
       <c r="P28" s="32" t="s">
@@ -6290,7 +6287,7 @@
       <c r="AB28" s="32" t="s">
         <v>779</v>
       </c>
-      <c r="AC28" s="34">
+      <c r="AC28" s="33">
         <v>5</v>
       </c>
     </row>
@@ -6334,10 +6331,10 @@
       <c r="M29" s="32">
         <v>0.5</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N29" s="32">
         <v>74</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="32">
         <v>7</v>
       </c>
       <c r="P29" s="32" t="s">
@@ -6379,7 +6376,7 @@
       <c r="AB29" s="32" t="s">
         <v>780</v>
       </c>
-      <c r="AC29" s="34">
+      <c r="AC29" s="33">
         <v>7</v>
       </c>
     </row>
@@ -6423,10 +6420,10 @@
       <c r="M30" s="32">
         <v>1</v>
       </c>
-      <c r="N30" s="33">
+      <c r="N30" s="32">
         <v>48</v>
       </c>
-      <c r="O30" s="33">
+      <c r="O30" s="32">
         <v>33</v>
       </c>
       <c r="P30" s="32" t="s">
@@ -6468,7 +6465,7 @@
       <c r="AB30" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="AC30" s="34">
+      <c r="AC30" s="33">
         <v>33</v>
       </c>
     </row>
@@ -6512,10 +6509,10 @@
       <c r="M31" s="32">
         <v>0.5</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N31" s="32">
         <v>76</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="32">
         <v>39</v>
       </c>
       <c r="P31" s="32" t="s">
@@ -6557,7 +6554,7 @@
       <c r="AB31" s="32" t="s">
         <v>782</v>
       </c>
-      <c r="AC31" s="34">
+      <c r="AC31" s="33">
         <v>39</v>
       </c>
     </row>
@@ -6601,10 +6598,10 @@
       <c r="M32" s="32">
         <v>0.5</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="32">
         <v>77</v>
       </c>
-      <c r="O32" s="33">
+      <c r="O32" s="32">
         <v>39</v>
       </c>
       <c r="P32" s="32" t="s">
@@ -6646,7 +6643,7 @@
       <c r="AB32" s="32" t="s">
         <v>783</v>
       </c>
-      <c r="AC32" s="34">
+      <c r="AC32" s="33">
         <v>39</v>
       </c>
     </row>
@@ -6690,10 +6687,10 @@
       <c r="M33" s="32">
         <v>0.5</v>
       </c>
-      <c r="N33" s="33">
+      <c r="N33" s="32">
         <v>78</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="32">
         <v>39</v>
       </c>
       <c r="P33" s="32" t="s">
@@ -6735,7 +6732,7 @@
       <c r="AB33" s="32" t="s">
         <v>784</v>
       </c>
-      <c r="AC33" s="34">
+      <c r="AC33" s="33">
         <v>39</v>
       </c>
     </row>
@@ -6779,10 +6776,10 @@
       <c r="M34" s="32">
         <v>0.5</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="32">
         <v>57</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O34" s="32">
         <v>57</v>
       </c>
       <c r="P34" s="32" t="s">
@@ -6824,7 +6821,7 @@
       <c r="AB34" s="32" t="s">
         <v>785</v>
       </c>
-      <c r="AC34" s="34">
+      <c r="AC34" s="33">
         <v>57</v>
       </c>
     </row>
@@ -6868,10 +6865,10 @@
       <c r="M35" s="32">
         <v>1</v>
       </c>
-      <c r="N35" s="33">
+      <c r="N35" s="32">
         <v>26</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="32">
         <v>1</v>
       </c>
       <c r="P35" s="32" t="s">
@@ -6913,7 +6910,7 @@
       <c r="AB35" s="32" t="s">
         <v>786</v>
       </c>
-      <c r="AC35" s="34">
+      <c r="AC35" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6957,10 +6954,10 @@
       <c r="M36" s="32">
         <v>0.5</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N36" s="32">
         <v>58</v>
       </c>
-      <c r="O36" s="33">
+      <c r="O36" s="32">
         <v>9</v>
       </c>
       <c r="P36" s="32" t="s">
@@ -7002,7 +6999,7 @@
       <c r="AB36" s="32" t="s">
         <v>787</v>
       </c>
-      <c r="AC36" s="34">
+      <c r="AC36" s="33">
         <v>9</v>
       </c>
     </row>
@@ -7046,10 +7043,10 @@
       <c r="M37" s="32">
         <v>0.5</v>
       </c>
-      <c r="N37" s="33">
+      <c r="N37" s="32">
         <v>59</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="32">
         <v>23</v>
       </c>
       <c r="P37" s="32" t="s">
@@ -7091,7 +7088,7 @@
       <c r="AB37" s="32" t="s">
         <v>788</v>
       </c>
-      <c r="AC37" s="34">
+      <c r="AC37" s="33">
         <v>23</v>
       </c>
     </row>
@@ -7135,10 +7132,10 @@
       <c r="M38" s="32">
         <v>0.5</v>
       </c>
-      <c r="N38" s="33">
+      <c r="N38" s="32">
         <v>60</v>
       </c>
-      <c r="O38" s="33">
+      <c r="O38" s="32">
         <v>2512</v>
       </c>
       <c r="P38" s="32" t="s">
@@ -7180,7 +7177,7 @@
       <c r="AB38" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="AC38" s="34">
+      <c r="AC38" s="33">
         <v>2512</v>
       </c>
     </row>
@@ -7224,10 +7221,10 @@
       <c r="M39" s="32">
         <v>0.5</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="32">
         <v>61</v>
       </c>
-      <c r="O39" s="33">
+      <c r="O39" s="32">
         <v>6</v>
       </c>
       <c r="P39" s="32" t="s">
@@ -7269,7 +7266,7 @@
       <c r="AB39" s="32" t="s">
         <v>790</v>
       </c>
-      <c r="AC39" s="34">
+      <c r="AC39" s="33">
         <v>6</v>
       </c>
     </row>
@@ -7313,10 +7310,10 @@
       <c r="M40" s="32">
         <v>0.5</v>
       </c>
-      <c r="N40" s="33">
+      <c r="N40" s="32">
         <v>62</v>
       </c>
-      <c r="O40" s="33">
+      <c r="O40" s="32">
         <v>13</v>
       </c>
       <c r="P40" s="32" t="s">
@@ -7358,7 +7355,7 @@
       <c r="AB40" s="32" t="s">
         <v>791</v>
       </c>
-      <c r="AC40" s="34">
+      <c r="AC40" s="33">
         <v>13</v>
       </c>
     </row>
@@ -7402,10 +7399,10 @@
       <c r="M41" s="32">
         <v>1.5</v>
       </c>
-      <c r="N41" s="33">
+      <c r="N41" s="32">
         <v>39</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="32">
         <v>12</v>
       </c>
       <c r="P41" s="32" t="s">
@@ -7447,7 +7444,7 @@
       <c r="AB41" s="32" t="s">
         <v>792</v>
       </c>
-      <c r="AC41" s="34">
+      <c r="AC41" s="33">
         <v>12</v>
       </c>
     </row>
@@ -7491,10 +7488,10 @@
       <c r="M42" s="32">
         <v>0.5</v>
       </c>
-      <c r="N42" s="33">
+      <c r="N42" s="32">
         <v>63</v>
       </c>
-      <c r="O42" s="33">
+      <c r="O42" s="32">
         <v>2361</v>
       </c>
       <c r="P42" s="32" t="s">
@@ -7536,7 +7533,7 @@
       <c r="AB42" s="32" t="s">
         <v>793</v>
       </c>
-      <c r="AC42" s="34">
+      <c r="AC42" s="33">
         <v>2361</v>
       </c>
     </row>
@@ -7580,10 +7577,10 @@
       <c r="M43" s="32">
         <v>0.5</v>
       </c>
-      <c r="N43" s="33">
+      <c r="N43" s="32">
         <v>68</v>
       </c>
-      <c r="O43" s="33">
+      <c r="O43" s="32">
         <v>24</v>
       </c>
       <c r="P43" s="32" t="s">
@@ -7625,7 +7622,7 @@
       <c r="AB43" s="32" t="s">
         <v>794</v>
       </c>
-      <c r="AC43" s="34">
+      <c r="AC43" s="33">
         <v>24</v>
       </c>
     </row>
@@ -7669,10 +7666,10 @@
       <c r="M44" s="32">
         <v>1</v>
       </c>
-      <c r="N44" s="33">
+      <c r="N44" s="32">
         <v>27</v>
       </c>
-      <c r="O44" s="33">
+      <c r="O44" s="32">
         <v>1</v>
       </c>
       <c r="P44" s="32" t="s">
@@ -7714,7 +7711,7 @@
       <c r="AB44" s="32" t="s">
         <v>795</v>
       </c>
-      <c r="AC44" s="34">
+      <c r="AC44" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7758,10 +7755,10 @@
       <c r="M45" s="32">
         <v>0.5</v>
       </c>
-      <c r="N45" s="33">
+      <c r="N45" s="32">
         <v>64</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="32">
         <v>4</v>
       </c>
       <c r="P45" s="32" t="s">
@@ -7803,7 +7800,7 @@
       <c r="AB45" s="32" t="s">
         <v>796</v>
       </c>
-      <c r="AC45" s="34">
+      <c r="AC45" s="33">
         <v>4</v>
       </c>
     </row>
@@ -7847,10 +7844,10 @@
       <c r="M46" s="32">
         <v>0.5</v>
       </c>
-      <c r="N46" s="33">
+      <c r="N46" s="32">
         <v>103</v>
       </c>
-      <c r="O46" s="33">
+      <c r="O46" s="32">
         <v>3</v>
       </c>
       <c r="P46" s="32" t="s">
@@ -7892,7 +7889,7 @@
       <c r="AB46" s="32" t="s">
         <v>797</v>
       </c>
-      <c r="AC46" s="34">
+      <c r="AC46" s="33">
         <v>3</v>
       </c>
     </row>
@@ -7936,10 +7933,10 @@
       <c r="M47" s="32">
         <v>0.5</v>
       </c>
-      <c r="N47" s="33">
+      <c r="N47" s="32">
         <v>80</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="32">
         <v>6</v>
       </c>
       <c r="P47" s="32" t="s">
@@ -7981,7 +7978,7 @@
       <c r="AB47" s="32" t="s">
         <v>798</v>
       </c>
-      <c r="AC47" s="34">
+      <c r="AC47" s="33">
         <v>6</v>
       </c>
     </row>
@@ -8025,10 +8022,10 @@
       <c r="M48" s="32">
         <v>0.5</v>
       </c>
-      <c r="N48" s="33">
+      <c r="N48" s="32">
         <v>79</v>
       </c>
-      <c r="O48" s="33">
+      <c r="O48" s="32">
         <v>14</v>
       </c>
       <c r="P48" s="32" t="s">
@@ -8070,7 +8067,7 @@
       <c r="AB48" s="32" t="s">
         <v>799</v>
       </c>
-      <c r="AC48" s="34">
+      <c r="AC48" s="33">
         <v>14</v>
       </c>
     </row>
@@ -8114,10 +8111,10 @@
       <c r="M49" s="32">
         <v>0.5</v>
       </c>
-      <c r="N49" s="33">
+      <c r="N49" s="32">
         <v>104</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="32">
         <v>3</v>
       </c>
       <c r="P49" s="32" t="s">
@@ -8159,7 +8156,7 @@
       <c r="AB49" s="32" t="s">
         <v>800</v>
       </c>
-      <c r="AC49" s="34">
+      <c r="AC49" s="33">
         <v>3</v>
       </c>
     </row>
@@ -8203,10 +8200,10 @@
       <c r="M50" s="32">
         <v>0.5</v>
       </c>
-      <c r="N50" s="33">
+      <c r="N50" s="32">
         <v>71</v>
       </c>
-      <c r="O50" s="33">
+      <c r="O50" s="32">
         <v>88</v>
       </c>
       <c r="P50" s="32" t="s">
@@ -8248,7 +8245,7 @@
       <c r="AB50" s="32" t="s">
         <v>801</v>
       </c>
-      <c r="AC50" s="34">
+      <c r="AC50" s="33">
         <v>88</v>
       </c>
     </row>
@@ -8292,10 +8289,10 @@
       <c r="M51" s="32">
         <v>0.5</v>
       </c>
-      <c r="N51" s="33">
+      <c r="N51" s="32">
         <v>115</v>
       </c>
-      <c r="O51" s="33">
+      <c r="O51" s="32">
         <v>30</v>
       </c>
       <c r="P51" s="32" t="s">
@@ -8337,7 +8334,7 @@
       <c r="AB51" s="32" t="s">
         <v>802</v>
       </c>
-      <c r="AC51" s="34">
+      <c r="AC51" s="33">
         <v>30</v>
       </c>
     </row>
@@ -8381,10 +8378,10 @@
       <c r="M52" s="32">
         <v>0.5</v>
       </c>
-      <c r="N52" s="33">
+      <c r="N52" s="32">
         <v>98</v>
       </c>
-      <c r="O52" s="33">
+      <c r="O52" s="32">
         <v>5158</v>
       </c>
       <c r="P52" s="32" t="s">
@@ -8426,7 +8423,7 @@
       <c r="AB52" s="32" t="s">
         <v>803</v>
       </c>
-      <c r="AC52" s="34">
+      <c r="AC52" s="33">
         <v>5158</v>
       </c>
     </row>
@@ -8470,10 +8467,10 @@
       <c r="M53" s="32">
         <v>0.5</v>
       </c>
-      <c r="N53" s="33">
+      <c r="N53" s="32">
         <v>99</v>
       </c>
-      <c r="O53" s="33">
+      <c r="O53" s="32">
         <v>62</v>
       </c>
       <c r="P53" s="32" t="s">
@@ -8515,7 +8512,7 @@
       <c r="AB53" s="32" t="s">
         <v>804</v>
       </c>
-      <c r="AC53" s="34">
+      <c r="AC53" s="33">
         <v>62</v>
       </c>
     </row>
@@ -8559,10 +8556,10 @@
       <c r="M54" s="32">
         <v>0.5</v>
       </c>
-      <c r="N54" s="33">
+      <c r="N54" s="32">
         <v>102</v>
       </c>
-      <c r="O54" s="33">
+      <c r="O54" s="32">
         <v>3362</v>
       </c>
       <c r="P54" s="32" t="s">
@@ -8604,7 +8601,7 @@
       <c r="AB54" s="32" t="s">
         <v>805</v>
       </c>
-      <c r="AC54" s="34">
+      <c r="AC54" s="33">
         <v>3362</v>
       </c>
     </row>
@@ -8648,10 +8645,10 @@
       <c r="M55" s="32">
         <v>1.5</v>
       </c>
-      <c r="N55" s="33">
+      <c r="N55" s="32">
         <v>89</v>
       </c>
-      <c r="O55" s="33">
+      <c r="O55" s="32">
         <v>10</v>
       </c>
       <c r="P55" s="32" t="s">
@@ -8693,7 +8690,7 @@
       <c r="AB55" s="32" t="s">
         <v>806</v>
       </c>
-      <c r="AC55" s="34">
+      <c r="AC55" s="33">
         <v>10</v>
       </c>
     </row>
@@ -8737,10 +8734,10 @@
       <c r="M56" s="32">
         <v>0.5</v>
       </c>
-      <c r="N56" s="33">
+      <c r="N56" s="32">
         <v>67</v>
       </c>
-      <c r="O56" s="33">
+      <c r="O56" s="32">
         <v>10</v>
       </c>
       <c r="P56" s="32" t="s">
@@ -8782,7 +8779,7 @@
       <c r="AB56" s="32" t="s">
         <v>807</v>
       </c>
-      <c r="AC56" s="34">
+      <c r="AC56" s="33">
         <v>10</v>
       </c>
     </row>
@@ -8826,10 +8823,10 @@
       <c r="M57" s="32">
         <v>1</v>
       </c>
-      <c r="N57" s="33">
+      <c r="N57" s="32">
         <v>38</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="32">
         <v>39</v>
       </c>
       <c r="P57" s="32" t="s">
@@ -8871,7 +8868,7 @@
       <c r="AB57" s="32" t="s">
         <v>808</v>
       </c>
-      <c r="AC57" s="34">
+      <c r="AC57" s="33">
         <v>39</v>
       </c>
     </row>
@@ -8915,10 +8912,10 @@
       <c r="M58" s="32">
         <v>1</v>
       </c>
-      <c r="N58" s="33">
+      <c r="N58" s="32">
         <v>51</v>
       </c>
-      <c r="O58" s="33">
+      <c r="O58" s="32">
         <v>39</v>
       </c>
       <c r="P58" s="32" t="s">
@@ -8960,7 +8957,7 @@
       <c r="AB58" s="32" t="s">
         <v>809</v>
       </c>
-      <c r="AC58" s="34">
+      <c r="AC58" s="33">
         <v>39</v>
       </c>
     </row>
@@ -9004,10 +9001,10 @@
       <c r="M59" s="32">
         <v>1</v>
       </c>
-      <c r="N59" s="33">
+      <c r="N59" s="32">
         <v>52</v>
       </c>
-      <c r="O59" s="33">
+      <c r="O59" s="32">
         <v>39</v>
       </c>
       <c r="P59" s="32" t="s">
@@ -9049,7 +9046,7 @@
       <c r="AB59" s="32" t="s">
         <v>810</v>
       </c>
-      <c r="AC59" s="34">
+      <c r="AC59" s="33">
         <v>39</v>
       </c>
     </row>
@@ -9093,10 +9090,10 @@
       <c r="M60" s="32">
         <v>0.5</v>
       </c>
-      <c r="N60" s="33">
+      <c r="N60" s="32">
         <v>40</v>
       </c>
-      <c r="O60" s="33">
+      <c r="O60" s="32">
         <v>20</v>
       </c>
       <c r="P60" s="32" t="s">
@@ -9138,7 +9135,7 @@
       <c r="AB60" s="32" t="s">
         <v>811</v>
       </c>
-      <c r="AC60" s="34">
+      <c r="AC60" s="33">
         <v>20</v>
       </c>
     </row>
@@ -9182,10 +9179,10 @@
       <c r="M61" s="32">
         <v>1</v>
       </c>
-      <c r="N61" s="33">
+      <c r="N61" s="32">
         <v>44</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="32">
         <v>18</v>
       </c>
       <c r="P61" s="32" t="s">
@@ -9227,7 +9224,7 @@
       <c r="AB61" s="32" t="s">
         <v>812</v>
       </c>
-      <c r="AC61" s="34">
+      <c r="AC61" s="33">
         <v>18</v>
       </c>
     </row>
@@ -9271,10 +9268,10 @@
       <c r="M62" s="32">
         <v>1</v>
       </c>
-      <c r="N62" s="33">
+      <c r="N62" s="32">
         <v>45</v>
       </c>
-      <c r="O62" s="33">
+      <c r="O62" s="32">
         <v>16</v>
       </c>
       <c r="P62" s="32" t="s">
@@ -9316,7 +9313,7 @@
       <c r="AB62" s="32" t="s">
         <v>813</v>
       </c>
-      <c r="AC62" s="34">
+      <c r="AC62" s="33">
         <v>16</v>
       </c>
     </row>
@@ -9360,10 +9357,10 @@
       <c r="M63" s="32">
         <v>1</v>
       </c>
-      <c r="N63" s="33">
+      <c r="N63" s="32">
         <v>46</v>
       </c>
-      <c r="O63" s="33">
+      <c r="O63" s="32">
         <v>43</v>
       </c>
       <c r="P63" s="32" t="s">
@@ -9405,7 +9402,7 @@
       <c r="AB63" s="32" t="s">
         <v>814</v>
       </c>
-      <c r="AC63" s="34">
+      <c r="AC63" s="33">
         <v>43</v>
       </c>
     </row>
@@ -9449,10 +9446,10 @@
       <c r="M64" s="32">
         <v>1</v>
       </c>
-      <c r="N64" s="33">
+      <c r="N64" s="32">
         <v>47</v>
       </c>
-      <c r="O64" s="33">
+      <c r="O64" s="32">
         <v>43</v>
       </c>
       <c r="P64" s="32" t="s">
@@ -9494,7 +9491,7 @@
       <c r="AB64" s="32" t="s">
         <v>815</v>
       </c>
-      <c r="AC64" s="34">
+      <c r="AC64" s="33">
         <v>43</v>
       </c>
     </row>
@@ -9538,10 +9535,10 @@
       <c r="M65" s="32">
         <v>0.5</v>
       </c>
-      <c r="N65" s="33">
+      <c r="N65" s="32">
         <v>101</v>
       </c>
-      <c r="O65" s="33">
+      <c r="O65" s="32">
         <v>8</v>
       </c>
       <c r="P65" s="32" t="s">
@@ -9583,7 +9580,7 @@
       <c r="AB65" s="32" t="s">
         <v>816</v>
       </c>
-      <c r="AC65" s="34">
+      <c r="AC65" s="33">
         <v>8</v>
       </c>
     </row>
@@ -9627,10 +9624,10 @@
       <c r="M66" s="32">
         <v>0.5</v>
       </c>
-      <c r="N66" s="33">
+      <c r="N66" s="32">
         <v>41</v>
       </c>
-      <c r="O66" s="33">
+      <c r="O66" s="32">
         <v>1</v>
       </c>
       <c r="P66" s="32" t="s">
@@ -9672,7 +9669,7 @@
       <c r="AB66" s="32" t="s">
         <v>817</v>
       </c>
-      <c r="AC66" s="34">
+      <c r="AC66" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9716,10 +9713,10 @@
       <c r="M67" s="32">
         <v>0.5</v>
       </c>
-      <c r="N67" s="33">
+      <c r="N67" s="32">
         <v>105</v>
       </c>
-      <c r="O67" s="33">
+      <c r="O67" s="32">
         <v>14</v>
       </c>
       <c r="P67" s="32" t="s">
@@ -9761,7 +9758,7 @@
       <c r="AB67" s="32" t="s">
         <v>818</v>
       </c>
-      <c r="AC67" s="34">
+      <c r="AC67" s="33">
         <v>14</v>
       </c>
     </row>
@@ -9805,10 +9802,10 @@
       <c r="M68" s="32">
         <v>0.5</v>
       </c>
-      <c r="N68" s="33">
+      <c r="N68" s="32">
         <v>107</v>
       </c>
-      <c r="O68" s="33">
+      <c r="O68" s="32">
         <v>5</v>
       </c>
       <c r="P68" s="32" t="s">
@@ -9850,7 +9847,7 @@
       <c r="AB68" s="32" t="s">
         <v>819</v>
       </c>
-      <c r="AC68" s="34">
+      <c r="AC68" s="33">
         <v>5</v>
       </c>
     </row>
@@ -9894,10 +9891,10 @@
       <c r="M69" s="32">
         <v>0.5</v>
       </c>
-      <c r="N69" s="33">
+      <c r="N69" s="32">
         <v>69</v>
       </c>
-      <c r="O69" s="33">
+      <c r="O69" s="32">
         <v>207</v>
       </c>
       <c r="P69" s="32" t="s">
@@ -9939,7 +9936,7 @@
       <c r="AB69" s="32" t="s">
         <v>820</v>
       </c>
-      <c r="AC69" s="34">
+      <c r="AC69" s="33">
         <v>207</v>
       </c>
     </row>
@@ -9983,10 +9980,10 @@
       <c r="M70" s="32">
         <v>0.5</v>
       </c>
-      <c r="N70" s="33">
+      <c r="N70" s="32">
         <v>75</v>
       </c>
-      <c r="O70" s="33">
+      <c r="O70" s="32">
         <v>14</v>
       </c>
       <c r="P70" s="32" t="s">
@@ -10028,7 +10025,7 @@
       <c r="AB70" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="AC70" s="34">
+      <c r="AC70" s="33">
         <v>14</v>
       </c>
     </row>
@@ -10072,10 +10069,10 @@
       <c r="M71" s="32">
         <v>0.5</v>
       </c>
-      <c r="N71" s="33">
+      <c r="N71" s="32">
         <v>100</v>
       </c>
-      <c r="O71" s="33">
+      <c r="O71" s="32">
         <v>2541</v>
       </c>
       <c r="P71" s="32" t="s">
@@ -10117,7 +10114,7 @@
       <c r="AB71" s="32" t="s">
         <v>822</v>
       </c>
-      <c r="AC71" s="34">
+      <c r="AC71" s="33">
         <v>2541</v>
       </c>
     </row>
@@ -10161,10 +10158,10 @@
       <c r="M72" s="32">
         <v>0.5</v>
       </c>
-      <c r="N72" s="33">
+      <c r="N72" s="32">
         <v>109</v>
       </c>
-      <c r="O72" s="33">
+      <c r="O72" s="32">
         <v>28</v>
       </c>
       <c r="P72" s="32" t="s">
@@ -10206,7 +10203,7 @@
       <c r="AB72" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="AC72" s="34">
+      <c r="AC72" s="33">
         <v>28</v>
       </c>
     </row>
@@ -10250,10 +10247,10 @@
       <c r="M73" s="32">
         <v>0.5</v>
       </c>
-      <c r="N73" s="33">
+      <c r="N73" s="32">
         <v>70</v>
       </c>
-      <c r="O73" s="33">
+      <c r="O73" s="32">
         <v>1</v>
       </c>
       <c r="P73" s="32" t="s">
@@ -10295,7 +10292,7 @@
       <c r="AB73" s="32" t="s">
         <v>824</v>
       </c>
-      <c r="AC73" s="34">
+      <c r="AC73" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10339,10 +10336,10 @@
       <c r="M74" s="32">
         <v>0.5</v>
       </c>
-      <c r="N74" s="33">
+      <c r="N74" s="32">
         <v>110</v>
       </c>
-      <c r="O74" s="33">
+      <c r="O74" s="32">
         <v>37</v>
       </c>
       <c r="P74" s="32" t="s">
@@ -10384,7 +10381,7 @@
       <c r="AB74" s="32" t="s">
         <v>825</v>
       </c>
-      <c r="AC74" s="34">
+      <c r="AC74" s="33">
         <v>37</v>
       </c>
     </row>
@@ -10428,10 +10425,10 @@
       <c r="M75" s="32">
         <v>0.5</v>
       </c>
-      <c r="N75" s="33">
+      <c r="N75" s="32">
         <v>108</v>
       </c>
-      <c r="O75" s="33">
+      <c r="O75" s="32">
         <v>28</v>
       </c>
       <c r="P75" s="32" t="s">
@@ -10473,7 +10470,7 @@
       <c r="AB75" s="32" t="s">
         <v>826</v>
       </c>
-      <c r="AC75" s="34">
+      <c r="AC75" s="33">
         <v>28</v>
       </c>
     </row>
@@ -10517,10 +10514,10 @@
       <c r="M76" s="32">
         <v>1.5</v>
       </c>
-      <c r="N76" s="33">
+      <c r="N76" s="32">
         <v>36</v>
       </c>
-      <c r="O76" s="33">
+      <c r="O76" s="32">
         <v>25</v>
       </c>
       <c r="P76" s="32" t="s">
@@ -10562,7 +10559,7 @@
       <c r="AB76" s="32" t="s">
         <v>827</v>
       </c>
-      <c r="AC76" s="34">
+      <c r="AC76" s="33">
         <v>25</v>
       </c>
     </row>
@@ -10606,10 +10603,10 @@
       <c r="M77" s="32">
         <v>0.25</v>
       </c>
-      <c r="N77" s="33">
+      <c r="N77" s="32">
         <v>34</v>
       </c>
-      <c r="O77" s="33">
+      <c r="O77" s="32">
         <v>2</v>
       </c>
       <c r="P77" s="32" t="s">
@@ -10651,7 +10648,7 @@
       <c r="AB77" s="32" t="s">
         <v>828</v>
       </c>
-      <c r="AC77" s="34">
+      <c r="AC77" s="33">
         <v>2</v>
       </c>
     </row>
@@ -10695,10 +10692,10 @@
       <c r="M78" s="32">
         <v>1</v>
       </c>
-      <c r="N78" s="33">
+      <c r="N78" s="32">
         <v>28</v>
       </c>
-      <c r="O78" s="33">
+      <c r="O78" s="32">
         <v>2512</v>
       </c>
       <c r="P78" s="32" t="s">
@@ -10740,7 +10737,7 @@
       <c r="AB78" s="32" t="s">
         <v>829</v>
       </c>
-      <c r="AC78" s="34">
+      <c r="AC78" s="33">
         <v>2512</v>
       </c>
     </row>
@@ -10784,10 +10781,10 @@
       <c r="M79" s="32">
         <v>3</v>
       </c>
-      <c r="N79" s="33">
+      <c r="N79" s="32">
         <v>92</v>
       </c>
-      <c r="O79" s="33">
+      <c r="O79" s="32">
         <v>7</v>
       </c>
       <c r="P79" s="32" t="s">
@@ -10829,7 +10826,7 @@
       <c r="AB79" s="32" t="s">
         <v>830</v>
       </c>
-      <c r="AC79" s="34">
+      <c r="AC79" s="33">
         <v>7</v>
       </c>
     </row>
@@ -10873,10 +10870,10 @@
       <c r="M80" s="32">
         <v>3</v>
       </c>
-      <c r="N80" s="33">
+      <c r="N80" s="32">
         <v>93</v>
       </c>
-      <c r="O80" s="33">
+      <c r="O80" s="32">
         <v>10</v>
       </c>
       <c r="P80" s="32" t="s">
@@ -10918,7 +10915,7 @@
       <c r="AB80" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="AC80" s="34">
+      <c r="AC80" s="33">
         <v>10</v>
       </c>
     </row>
@@ -10962,10 +10959,10 @@
       <c r="M81" s="32">
         <v>1</v>
       </c>
-      <c r="N81" s="33">
+      <c r="N81" s="32">
         <v>49</v>
       </c>
-      <c r="O81" s="33">
+      <c r="O81" s="32">
         <v>33</v>
       </c>
       <c r="P81" s="32" t="s">
@@ -11007,7 +11004,7 @@
       <c r="AB81" s="32" t="s">
         <v>832</v>
       </c>
-      <c r="AC81" s="34">
+      <c r="AC81" s="33">
         <v>33</v>
       </c>
     </row>
@@ -11051,10 +11048,10 @@
       <c r="M82" s="32">
         <v>0.75</v>
       </c>
-      <c r="N82" s="33">
+      <c r="N82" s="32">
         <v>50</v>
       </c>
-      <c r="O82" s="33">
+      <c r="O82" s="32">
         <v>33</v>
       </c>
       <c r="P82" s="32" t="s">
@@ -11096,7 +11093,7 @@
       <c r="AB82" s="32" t="s">
         <v>833</v>
       </c>
-      <c r="AC82" s="34">
+      <c r="AC82" s="33">
         <v>33</v>
       </c>
     </row>
@@ -11140,10 +11137,10 @@
       <c r="M83" s="32">
         <v>0.5</v>
       </c>
-      <c r="N83" s="33">
+      <c r="N83" s="32">
         <v>72</v>
       </c>
-      <c r="O83" s="33">
+      <c r="O83" s="32">
         <v>43</v>
       </c>
       <c r="P83" s="32" t="s">
@@ -11185,7 +11182,7 @@
       <c r="AB83" s="32" t="s">
         <v>834</v>
       </c>
-      <c r="AC83" s="34">
+      <c r="AC83" s="33">
         <v>43</v>
       </c>
     </row>
@@ -11229,10 +11226,10 @@
       <c r="M84" s="32">
         <v>0.5</v>
       </c>
-      <c r="N84" s="33">
+      <c r="N84" s="32">
         <v>73</v>
       </c>
-      <c r="O84" s="33">
+      <c r="O84" s="32">
         <v>43</v>
       </c>
       <c r="P84" s="32" t="s">
@@ -11274,7 +11271,7 @@
       <c r="AB84" s="32" t="s">
         <v>835</v>
       </c>
-      <c r="AC84" s="34">
+      <c r="AC84" s="33">
         <v>43</v>
       </c>
     </row>
@@ -11318,10 +11315,10 @@
       <c r="M85" s="32">
         <v>0.5</v>
       </c>
-      <c r="N85" s="33">
+      <c r="N85" s="32">
         <v>114</v>
       </c>
-      <c r="O85" s="33">
+      <c r="O85" s="32">
         <v>17</v>
       </c>
       <c r="P85" s="32" t="s">
@@ -11363,7 +11360,7 @@
       <c r="AB85" s="32" t="s">
         <v>836</v>
       </c>
-      <c r="AC85" s="34">
+      <c r="AC85" s="33">
         <v>17</v>
       </c>
     </row>
@@ -11407,10 +11404,10 @@
       <c r="M86" s="32">
         <v>2</v>
       </c>
-      <c r="N86" s="33">
+      <c r="N86" s="32">
         <v>53</v>
       </c>
-      <c r="O86" s="33">
+      <c r="O86" s="32">
         <v>8</v>
       </c>
       <c r="P86" s="32" t="s">
@@ -11452,7 +11449,7 @@
       <c r="AB86" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="AC86" s="34">
+      <c r="AC86" s="33">
         <v>8</v>
       </c>
     </row>
@@ -11496,10 +11493,10 @@
       <c r="M87" s="32">
         <v>2</v>
       </c>
-      <c r="N87" s="33">
+      <c r="N87" s="32">
         <v>54</v>
       </c>
-      <c r="O87" s="33">
+      <c r="O87" s="32">
         <v>1</v>
       </c>
       <c r="P87" s="32" t="s">
@@ -11541,7 +11538,7 @@
       <c r="AB87" s="32" t="s">
         <v>838</v>
       </c>
-      <c r="AC87" s="34">
+      <c r="AC87" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11585,10 +11582,10 @@
       <c r="M88" s="32">
         <v>2</v>
       </c>
-      <c r="N88" s="33">
+      <c r="N88" s="32">
         <v>55</v>
       </c>
-      <c r="O88" s="33">
+      <c r="O88" s="32">
         <v>6</v>
       </c>
       <c r="P88" s="32" t="s">
@@ -11630,7 +11627,7 @@
       <c r="AB88" s="32" t="s">
         <v>839</v>
       </c>
-      <c r="AC88" s="34">
+      <c r="AC88" s="33">
         <v>6</v>
       </c>
     </row>
@@ -11674,10 +11671,10 @@
       <c r="M89" s="32">
         <v>2</v>
       </c>
-      <c r="N89" s="33">
+      <c r="N89" s="32">
         <v>56</v>
       </c>
-      <c r="O89" s="33">
+      <c r="O89" s="32">
         <v>17</v>
       </c>
       <c r="P89" s="32" t="s">
@@ -11719,7 +11716,7 @@
       <c r="AB89" s="32" t="s">
         <v>840</v>
       </c>
-      <c r="AC89" s="34">
+      <c r="AC89" s="33">
         <v>17</v>
       </c>
     </row>
@@ -11763,10 +11760,10 @@
       <c r="M90" s="32">
         <v>0.5</v>
       </c>
-      <c r="N90" s="33">
+      <c r="N90" s="32">
         <v>66</v>
       </c>
-      <c r="O90" s="33">
+      <c r="O90" s="32">
         <v>7</v>
       </c>
       <c r="P90" s="32" t="s">
@@ -11808,7 +11805,7 @@
       <c r="AB90" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="AC90" s="34">
+      <c r="AC90" s="33">
         <v>7</v>
       </c>
     </row>
@@ -11852,10 +11849,10 @@
       <c r="M91" s="32">
         <v>0.5</v>
       </c>
-      <c r="N91" s="33">
+      <c r="N91" s="32">
         <v>97</v>
       </c>
-      <c r="O91" s="33">
+      <c r="O91" s="32">
         <v>18</v>
       </c>
       <c r="P91" s="32" t="s">
@@ -11897,7 +11894,7 @@
       <c r="AB91" s="32" t="s">
         <v>842</v>
       </c>
-      <c r="AC91" s="34">
+      <c r="AC91" s="33">
         <v>18</v>
       </c>
     </row>
@@ -11941,10 +11938,10 @@
       <c r="M92" s="32">
         <v>5</v>
       </c>
-      <c r="N92" s="33">
+      <c r="N92" s="32">
         <v>94</v>
       </c>
-      <c r="O92" s="33">
+      <c r="O92" s="32">
         <v>7314</v>
       </c>
       <c r="P92" s="32" t="s">
@@ -11986,7 +11983,7 @@
       <c r="AB92" s="32" t="s">
         <v>843</v>
       </c>
-      <c r="AC92" s="34">
+      <c r="AC92" s="33">
         <v>7314</v>
       </c>
     </row>
@@ -12030,10 +12027,10 @@
       <c r="M93" s="32">
         <v>1</v>
       </c>
-      <c r="N93" s="33">
+      <c r="N93" s="32">
         <v>31</v>
       </c>
-      <c r="O93" s="33">
+      <c r="O93" s="32">
         <v>14</v>
       </c>
       <c r="P93" s="32" t="s">
@@ -12075,7 +12072,7 @@
       <c r="AB93" s="32" t="s">
         <v>844</v>
       </c>
-      <c r="AC93" s="34">
+      <c r="AC93" s="33">
         <v>14</v>
       </c>
     </row>
@@ -12119,10 +12116,10 @@
       <c r="M94" s="32">
         <v>1</v>
       </c>
-      <c r="N94" s="33">
+      <c r="N94" s="32">
         <v>32</v>
       </c>
-      <c r="O94" s="33">
+      <c r="O94" s="32">
         <v>14</v>
       </c>
       <c r="P94" s="32" t="s">
@@ -12164,7 +12161,7 @@
       <c r="AB94" s="32" t="s">
         <v>845</v>
       </c>
-      <c r="AC94" s="34">
+      <c r="AC94" s="33">
         <v>14</v>
       </c>
     </row>
@@ -12208,10 +12205,10 @@
       <c r="M95" s="32">
         <v>1</v>
       </c>
-      <c r="N95" s="33">
+      <c r="N95" s="32">
         <v>30</v>
       </c>
-      <c r="O95" s="33">
+      <c r="O95" s="32">
         <v>14</v>
       </c>
       <c r="P95" s="32" t="s">
@@ -12253,7 +12250,7 @@
       <c r="AB95" s="32" t="s">
         <v>846</v>
       </c>
-      <c r="AC95" s="34">
+      <c r="AC95" s="33">
         <v>14</v>
       </c>
     </row>
@@ -12297,10 +12294,10 @@
       <c r="M96" s="32">
         <v>1</v>
       </c>
-      <c r="N96" s="33">
+      <c r="N96" s="32">
         <v>33</v>
       </c>
-      <c r="O96" s="33">
+      <c r="O96" s="32">
         <v>5</v>
       </c>
       <c r="P96" s="32" t="s">
@@ -12342,7 +12339,7 @@
       <c r="AB96" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="AC96" s="34">
+      <c r="AC96" s="33">
         <v>5</v>
       </c>
     </row>
@@ -12386,10 +12383,10 @@
       <c r="M97" s="32">
         <v>0.5</v>
       </c>
-      <c r="N97" s="33">
+      <c r="N97" s="32">
         <v>106</v>
       </c>
-      <c r="O97" s="33">
+      <c r="O97" s="32">
         <v>5158</v>
       </c>
       <c r="P97" s="32" t="s">
@@ -12431,7 +12428,7 @@
       <c r="AB97" s="32" t="s">
         <v>848</v>
       </c>
-      <c r="AC97" s="34">
+      <c r="AC97" s="33">
         <v>5158</v>
       </c>
     </row>
@@ -12475,10 +12472,10 @@
       <c r="M98" s="32">
         <v>0.5</v>
       </c>
-      <c r="N98" s="33">
+      <c r="N98" s="32">
         <v>65</v>
       </c>
-      <c r="O98" s="33">
+      <c r="O98" s="32">
         <v>25</v>
       </c>
       <c r="P98" s="32" t="s">
@@ -12520,7 +12517,7 @@
       <c r="AB98" s="32" t="s">
         <v>849</v>
       </c>
-      <c r="AC98" s="34">
+      <c r="AC98" s="33">
         <v>25</v>
       </c>
     </row>
@@ -12564,10 +12561,10 @@
       <c r="M99" s="32">
         <v>1</v>
       </c>
-      <c r="N99" s="33">
+      <c r="N99" s="32">
         <v>29</v>
       </c>
-      <c r="O99" s="33">
+      <c r="O99" s="32">
         <v>25</v>
       </c>
       <c r="P99" s="32" t="s">
@@ -12609,7 +12606,7 @@
       <c r="AB99" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="AC99" s="34">
+      <c r="AC99" s="33">
         <v>25</v>
       </c>
     </row>
@@ -12653,10 +12650,10 @@
       <c r="M100" s="32">
         <v>1.5</v>
       </c>
-      <c r="N100" s="33">
+      <c r="N100" s="32">
         <v>90</v>
       </c>
-      <c r="O100" s="33">
+      <c r="O100" s="32">
         <v>12</v>
       </c>
       <c r="P100" s="32" t="s">
@@ -12698,7 +12695,7 @@
       <c r="AB100" s="32" t="s">
         <v>851</v>
       </c>
-      <c r="AC100" s="34">
+      <c r="AC100" s="33">
         <v>12</v>
       </c>
     </row>
@@ -12742,10 +12739,10 @@
       <c r="M101" s="32">
         <v>0.25</v>
       </c>
-      <c r="N101" s="33">
+      <c r="N101" s="32">
         <v>150</v>
       </c>
-      <c r="O101" s="33">
+      <c r="O101" s="32">
         <v>0</v>
       </c>
       <c r="P101" s="32" t="s">
@@ -12787,7 +12784,7 @@
       <c r="AB101" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC101" s="34">
+      <c r="AC101" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12831,10 +12828,10 @@
       <c r="M102" s="32">
         <v>0.25</v>
       </c>
-      <c r="N102" s="33">
+      <c r="N102" s="32">
         <v>151</v>
       </c>
-      <c r="O102" s="33">
+      <c r="O102" s="32">
         <v>0</v>
       </c>
       <c r="P102" s="32" t="s">
@@ -12876,7 +12873,7 @@
       <c r="AB102" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC102" s="34">
+      <c r="AC102" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12920,10 +12917,10 @@
       <c r="M103" s="32">
         <v>3</v>
       </c>
-      <c r="N103" s="33">
+      <c r="N103" s="32">
         <v>152</v>
       </c>
-      <c r="O103" s="33">
+      <c r="O103" s="32">
         <v>0</v>
       </c>
       <c r="P103" s="32" t="s">
@@ -12965,7 +12962,7 @@
       <c r="AB103" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC103" s="34">
+      <c r="AC103" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13009,10 +13006,10 @@
       <c r="M104" s="32">
         <v>2</v>
       </c>
-      <c r="N104" s="33">
+      <c r="N104" s="32">
         <v>153</v>
       </c>
-      <c r="O104" s="33">
+      <c r="O104" s="32">
         <v>0</v>
       </c>
       <c r="P104" s="32" t="s">
@@ -13054,7 +13051,7 @@
       <c r="AB104" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC104" s="34">
+      <c r="AC104" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13098,10 +13095,10 @@
       <c r="M105" s="32">
         <v>0.25</v>
       </c>
-      <c r="N105" s="33">
+      <c r="N105" s="32">
         <v>154</v>
       </c>
-      <c r="O105" s="33">
+      <c r="O105" s="32">
         <v>0</v>
       </c>
       <c r="P105" s="32" t="s">
@@ -13143,7 +13140,7 @@
       <c r="AB105" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC105" s="34">
+      <c r="AC105" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13187,10 +13184,10 @@
       <c r="M106" s="32">
         <v>0.75</v>
       </c>
-      <c r="N106" s="33">
+      <c r="N106" s="32">
         <v>155</v>
       </c>
-      <c r="O106" s="33">
+      <c r="O106" s="32">
         <v>0</v>
       </c>
       <c r="P106" s="32" t="s">
@@ -13232,7 +13229,7 @@
       <c r="AB106" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC106" s="34">
+      <c r="AC106" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13276,10 +13273,10 @@
       <c r="M107" s="32">
         <v>0.75</v>
       </c>
-      <c r="N107" s="33">
+      <c r="N107" s="32">
         <v>156</v>
       </c>
-      <c r="O107" s="33">
+      <c r="O107" s="32">
         <v>0</v>
       </c>
       <c r="P107" s="32" t="s">
@@ -13321,7 +13318,7 @@
       <c r="AB107" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC107" s="34">
+      <c r="AC107" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13365,10 +13362,10 @@
       <c r="M108" s="32">
         <v>0.75</v>
       </c>
-      <c r="N108" s="33">
+      <c r="N108" s="32">
         <v>157</v>
       </c>
-      <c r="O108" s="33">
+      <c r="O108" s="32">
         <v>0</v>
       </c>
       <c r="P108" s="32" t="s">
@@ -13410,7 +13407,7 @@
       <c r="AB108" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC108" s="34">
+      <c r="AC108" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13454,10 +13451,10 @@
       <c r="M109" s="32">
         <v>1.5</v>
       </c>
-      <c r="N109" s="33">
+      <c r="N109" s="32">
         <v>158</v>
       </c>
-      <c r="O109" s="33">
+      <c r="O109" s="32">
         <v>0</v>
       </c>
       <c r="P109" s="32" t="s">
@@ -13499,7 +13496,7 @@
       <c r="AB109" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC109" s="34">
+      <c r="AC109" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13543,10 +13540,10 @@
       <c r="M110" s="32">
         <v>4</v>
       </c>
-      <c r="N110" s="33">
+      <c r="N110" s="32">
         <v>159</v>
       </c>
-      <c r="O110" s="33">
+      <c r="O110" s="32">
         <v>0</v>
       </c>
       <c r="P110" s="32" t="s">
@@ -13588,7 +13585,7 @@
       <c r="AB110" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC110" s="34">
+      <c r="AC110" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13632,10 +13629,10 @@
       <c r="M111" s="32">
         <v>1.5</v>
       </c>
-      <c r="N111" s="33">
+      <c r="N111" s="32">
         <v>160</v>
       </c>
-      <c r="O111" s="33">
+      <c r="O111" s="32">
         <v>0</v>
       </c>
       <c r="P111" s="32" t="s">
@@ -13677,7 +13674,7 @@
       <c r="AB111" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC111" s="34">
+      <c r="AC111" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13721,10 +13718,10 @@
       <c r="M112" s="32">
         <v>0.75</v>
       </c>
-      <c r="N112" s="33">
+      <c r="N112" s="32">
         <v>161</v>
       </c>
-      <c r="O112" s="33">
+      <c r="O112" s="32">
         <v>0</v>
       </c>
       <c r="P112" s="32" t="s">
@@ -13766,7 +13763,7 @@
       <c r="AB112" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC112" s="34">
+      <c r="AC112" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13810,10 +13807,10 @@
       <c r="M113" s="32">
         <v>0.25</v>
       </c>
-      <c r="N113" s="33">
+      <c r="N113" s="32">
         <v>162</v>
       </c>
-      <c r="O113" s="33">
+      <c r="O113" s="32">
         <v>0</v>
       </c>
       <c r="P113" s="32" t="s">
@@ -13855,7 +13852,7 @@
       <c r="AB113" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC113" s="34">
+      <c r="AC113" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13899,10 +13896,10 @@
       <c r="M114" s="32">
         <v>0.75</v>
       </c>
-      <c r="N114" s="33">
+      <c r="N114" s="32">
         <v>163</v>
       </c>
-      <c r="O114" s="33">
+      <c r="O114" s="32">
         <v>0</v>
       </c>
       <c r="P114" s="32" t="s">
@@ -13944,7 +13941,7 @@
       <c r="AB114" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC114" s="34">
+      <c r="AC114" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13988,10 +13985,10 @@
       <c r="M115" s="32">
         <v>3</v>
       </c>
-      <c r="N115" s="33">
+      <c r="N115" s="32">
         <v>164</v>
       </c>
-      <c r="O115" s="33">
+      <c r="O115" s="32">
         <v>0</v>
       </c>
       <c r="P115" s="32" t="s">
@@ -14033,7 +14030,7 @@
       <c r="AB115" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC115" s="34">
+      <c r="AC115" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14077,10 +14074,10 @@
       <c r="M116" s="32">
         <v>0.75</v>
       </c>
-      <c r="N116" s="33">
+      <c r="N116" s="32">
         <v>165</v>
       </c>
-      <c r="O116" s="33">
+      <c r="O116" s="32">
         <v>0</v>
       </c>
       <c r="P116" s="32" t="s">
@@ -14122,7 +14119,7 @@
       <c r="AB116" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC116" s="34">
+      <c r="AC116" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14166,10 +14163,10 @@
       <c r="M117" s="32">
         <v>1.5</v>
       </c>
-      <c r="N117" s="33">
+      <c r="N117" s="32">
         <v>166</v>
       </c>
-      <c r="O117" s="33">
+      <c r="O117" s="32">
         <v>0</v>
       </c>
       <c r="P117" s="32" t="s">
@@ -14211,7 +14208,7 @@
       <c r="AB117" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC117" s="34">
+      <c r="AC117" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14255,10 +14252,10 @@
       <c r="M118" s="32">
         <v>3</v>
       </c>
-      <c r="N118" s="33">
+      <c r="N118" s="32">
         <v>167</v>
       </c>
-      <c r="O118" s="33">
+      <c r="O118" s="32">
         <v>0</v>
       </c>
       <c r="P118" s="32" t="s">
@@ -14300,7 +14297,7 @@
       <c r="AB118" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC118" s="34">
+      <c r="AC118" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14344,10 +14341,10 @@
       <c r="M119" s="32">
         <v>0.25</v>
       </c>
-      <c r="N119" s="33">
+      <c r="N119" s="32">
         <v>168</v>
       </c>
-      <c r="O119" s="33">
+      <c r="O119" s="32">
         <v>0</v>
       </c>
       <c r="P119" s="32" t="s">
@@ -14389,7 +14386,7 @@
       <c r="AB119" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC119" s="34">
+      <c r="AC119" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14433,10 +14430,10 @@
       <c r="M120" s="32">
         <v>0.5</v>
       </c>
-      <c r="N120" s="33">
+      <c r="N120" s="32">
         <v>169</v>
       </c>
-      <c r="O120" s="33">
+      <c r="O120" s="32">
         <v>0</v>
       </c>
       <c r="P120" s="32" t="s">
@@ -14478,7 +14475,7 @@
       <c r="AB120" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC120" s="34">
+      <c r="AC120" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14522,10 +14519,10 @@
       <c r="M121" s="32">
         <v>0.5</v>
       </c>
-      <c r="N121" s="33">
+      <c r="N121" s="32">
         <v>170</v>
       </c>
-      <c r="O121" s="33">
+      <c r="O121" s="32">
         <v>0</v>
       </c>
       <c r="P121" s="32" t="s">
@@ -14567,7 +14564,7 @@
       <c r="AB121" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC121" s="34">
+      <c r="AC121" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14611,10 +14608,10 @@
       <c r="M122" s="32">
         <v>0.5</v>
       </c>
-      <c r="N122" s="33">
+      <c r="N122" s="32">
         <v>171</v>
       </c>
-      <c r="O122" s="33">
+      <c r="O122" s="32">
         <v>0</v>
       </c>
       <c r="P122" s="32" t="s">
@@ -14656,7 +14653,7 @@
       <c r="AB122" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC122" s="34">
+      <c r="AC122" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14700,10 +14697,10 @@
       <c r="M123" s="32">
         <v>0.5</v>
       </c>
-      <c r="N123" s="33">
+      <c r="N123" s="32">
         <v>172</v>
       </c>
-      <c r="O123" s="33">
+      <c r="O123" s="32">
         <v>0</v>
       </c>
       <c r="P123" s="32" t="s">
@@ -14745,7 +14742,7 @@
       <c r="AB123" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC123" s="34">
+      <c r="AC123" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14789,10 +14786,10 @@
       <c r="M124" s="32">
         <v>0.5</v>
       </c>
-      <c r="N124" s="33">
+      <c r="N124" s="32">
         <v>173</v>
       </c>
-      <c r="O124" s="33">
+      <c r="O124" s="32">
         <v>0</v>
       </c>
       <c r="P124" s="32" t="s">
@@ -14834,7 +14831,7 @@
       <c r="AB124" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC124" s="34">
+      <c r="AC124" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14878,10 +14875,10 @@
       <c r="M125" s="32">
         <v>0.5</v>
       </c>
-      <c r="N125" s="33">
+      <c r="N125" s="32">
         <v>174</v>
       </c>
-      <c r="O125" s="33">
+      <c r="O125" s="32">
         <v>0</v>
       </c>
       <c r="P125" s="32" t="s">
@@ -14923,7 +14920,7 @@
       <c r="AB125" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC125" s="34">
+      <c r="AC125" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14965,10 +14962,10 @@
       <c r="M126" s="32">
         <v>0.5</v>
       </c>
-      <c r="N126" s="33">
+      <c r="N126" s="32">
         <v>175</v>
       </c>
-      <c r="O126" s="33">
+      <c r="O126" s="32">
         <v>0</v>
       </c>
       <c r="P126" s="32" t="s">
@@ -15010,7 +15007,7 @@
       <c r="AB126" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC126" s="34">
+      <c r="AC126" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15054,10 +15051,10 @@
       <c r="M127" s="32">
         <v>0.5</v>
       </c>
-      <c r="N127" s="33">
+      <c r="N127" s="32">
         <v>176</v>
       </c>
-      <c r="O127" s="33">
+      <c r="O127" s="32">
         <v>0</v>
       </c>
       <c r="P127" s="32" t="s">
@@ -15099,7 +15096,7 @@
       <c r="AB127" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC127" s="34">
+      <c r="AC127" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15143,10 +15140,10 @@
       <c r="M128" s="32">
         <v>1</v>
       </c>
-      <c r="N128" s="33">
+      <c r="N128" s="32">
         <v>177</v>
       </c>
-      <c r="O128" s="33">
+      <c r="O128" s="32">
         <v>0</v>
       </c>
       <c r="P128" s="32" t="s">
@@ -15188,7 +15185,7 @@
       <c r="AB128" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC128" s="34">
+      <c r="AC128" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15232,10 +15229,10 @@
       <c r="M129" s="32">
         <v>0.5</v>
       </c>
-      <c r="N129" s="33">
+      <c r="N129" s="32">
         <v>178</v>
       </c>
-      <c r="O129" s="33">
+      <c r="O129" s="32">
         <v>0</v>
       </c>
       <c r="P129" s="32" t="s">
@@ -15277,7 +15274,7 @@
       <c r="AB129" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC129" s="34">
+      <c r="AC129" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15319,10 +15316,10 @@
       <c r="M130" s="32">
         <v>0.5</v>
       </c>
-      <c r="N130" s="33">
+      <c r="N130" s="32">
         <v>179</v>
       </c>
-      <c r="O130" s="33">
+      <c r="O130" s="32">
         <v>0</v>
       </c>
       <c r="P130" s="32" t="s">
@@ -15364,7 +15361,7 @@
       <c r="AB130" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC130" s="34">
+      <c r="AC130" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15408,10 +15405,10 @@
       <c r="M131" s="32">
         <v>0.5</v>
       </c>
-      <c r="N131" s="33">
+      <c r="N131" s="32">
         <v>180</v>
       </c>
-      <c r="O131" s="33">
+      <c r="O131" s="32">
         <v>0</v>
       </c>
       <c r="P131" s="32" t="s">
@@ -15453,7 +15450,7 @@
       <c r="AB131" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC131" s="34">
+      <c r="AC131" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15497,10 +15494,10 @@
       <c r="M132" s="32">
         <v>0.5</v>
       </c>
-      <c r="N132" s="33">
+      <c r="N132" s="32">
         <v>181</v>
       </c>
-      <c r="O132" s="33">
+      <c r="O132" s="32">
         <v>0</v>
       </c>
       <c r="P132" s="32" t="s">
@@ -15542,7 +15539,7 @@
       <c r="AB132" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC132" s="34">
+      <c r="AC132" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15586,10 +15583,10 @@
       <c r="M133" s="32">
         <v>0.5</v>
       </c>
-      <c r="N133" s="33">
+      <c r="N133" s="32">
         <v>182</v>
       </c>
-      <c r="O133" s="33">
+      <c r="O133" s="32">
         <v>0</v>
       </c>
       <c r="P133" s="32" t="s">
@@ -15631,7 +15628,7 @@
       <c r="AB133" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC133" s="34">
+      <c r="AC133" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15675,10 +15672,10 @@
       <c r="M134" s="32">
         <v>1</v>
       </c>
-      <c r="N134" s="33">
+      <c r="N134" s="32">
         <v>183</v>
       </c>
-      <c r="O134" s="33">
+      <c r="O134" s="32">
         <v>0</v>
       </c>
       <c r="P134" s="32" t="s">
@@ -15720,7 +15717,7 @@
       <c r="AB134" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC134" s="34">
+      <c r="AC134" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15764,10 +15761,10 @@
       <c r="M135" s="32">
         <v>0.25</v>
       </c>
-      <c r="N135" s="33">
+      <c r="N135" s="32">
         <v>184</v>
       </c>
-      <c r="O135" s="33">
+      <c r="O135" s="32">
         <v>0</v>
       </c>
       <c r="P135" s="32" t="s">
@@ -15809,7 +15806,7 @@
       <c r="AB135" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC135" s="34">
+      <c r="AC135" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15853,10 +15850,10 @@
       <c r="M136" s="32">
         <v>0.5</v>
       </c>
-      <c r="N136" s="33">
+      <c r="N136" s="32">
         <v>185</v>
       </c>
-      <c r="O136" s="33">
+      <c r="O136" s="32">
         <v>0</v>
       </c>
       <c r="P136" s="32" t="s">
@@ -15898,7 +15895,7 @@
       <c r="AB136" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC136" s="34">
+      <c r="AC136" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15942,10 +15939,10 @@
       <c r="M137" s="32">
         <v>0.5</v>
       </c>
-      <c r="N137" s="33">
+      <c r="N137" s="32">
         <v>186</v>
       </c>
-      <c r="O137" s="33">
+      <c r="O137" s="32">
         <v>0</v>
       </c>
       <c r="P137" s="32" t="s">
@@ -15987,7 +15984,7 @@
       <c r="AB137" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC137" s="34">
+      <c r="AC137" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16031,10 +16028,10 @@
       <c r="M138" s="32">
         <v>0.5</v>
       </c>
-      <c r="N138" s="33">
+      <c r="N138" s="32">
         <v>187</v>
       </c>
-      <c r="O138" s="33">
+      <c r="O138" s="32">
         <v>0</v>
       </c>
       <c r="P138" s="32" t="s">
@@ -16076,7 +16073,7 @@
       <c r="AB138" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC138" s="34">
+      <c r="AC138" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16118,10 +16115,10 @@
       <c r="M139" s="32">
         <v>1</v>
       </c>
-      <c r="N139" s="33">
+      <c r="N139" s="32">
         <v>188</v>
       </c>
-      <c r="O139" s="33">
+      <c r="O139" s="32">
         <v>0</v>
       </c>
       <c r="P139" s="32" t="s">
@@ -16163,7 +16160,7 @@
       <c r="AB139" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC139" s="34">
+      <c r="AC139" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16207,10 +16204,10 @@
       <c r="M140" s="32">
         <v>0.5</v>
       </c>
-      <c r="N140" s="33">
+      <c r="N140" s="32">
         <v>189</v>
       </c>
-      <c r="O140" s="33">
+      <c r="O140" s="32">
         <v>0</v>
       </c>
       <c r="P140" s="32" t="s">
@@ -16252,7 +16249,7 @@
       <c r="AB140" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC140" s="34">
+      <c r="AC140" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16296,10 +16293,10 @@
       <c r="M141" s="32">
         <v>1</v>
       </c>
-      <c r="N141" s="33">
+      <c r="N141" s="32">
         <v>190</v>
       </c>
-      <c r="O141" s="33">
+      <c r="O141" s="32">
         <v>0</v>
       </c>
       <c r="P141" s="32" t="s">
@@ -16341,7 +16338,7 @@
       <c r="AB141" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC141" s="34">
+      <c r="AC141" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16385,10 +16382,10 @@
       <c r="M142" s="32">
         <v>0.25</v>
       </c>
-      <c r="N142" s="33">
+      <c r="N142" s="32">
         <v>191</v>
       </c>
-      <c r="O142" s="33">
+      <c r="O142" s="32">
         <v>0</v>
       </c>
       <c r="P142" s="32" t="s">
@@ -16430,7 +16427,7 @@
       <c r="AB142" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC142" s="34">
+      <c r="AC142" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16474,10 +16471,10 @@
       <c r="M143" s="32">
         <v>0.25</v>
       </c>
-      <c r="N143" s="33">
+      <c r="N143" s="32">
         <v>192</v>
       </c>
-      <c r="O143" s="33">
+      <c r="O143" s="32">
         <v>0</v>
       </c>
       <c r="P143" s="32" t="s">
@@ -16519,7 +16516,7 @@
       <c r="AB143" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC143" s="34">
+      <c r="AC143" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16563,10 +16560,10 @@
       <c r="M144" s="32">
         <v>2</v>
       </c>
-      <c r="N144" s="33">
+      <c r="N144" s="32">
         <v>193</v>
       </c>
-      <c r="O144" s="33">
+      <c r="O144" s="32">
         <v>0</v>
       </c>
       <c r="P144" s="32" t="s">
@@ -16608,7 +16605,7 @@
       <c r="AB144" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC144" s="34">
+      <c r="AC144" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16652,10 +16649,10 @@
       <c r="M145" s="32">
         <v>2</v>
       </c>
-      <c r="N145" s="33">
+      <c r="N145" s="32">
         <v>194</v>
       </c>
-      <c r="O145" s="33">
+      <c r="O145" s="32">
         <v>0</v>
       </c>
       <c r="P145" s="32" t="s">
@@ -16697,7 +16694,7 @@
       <c r="AB145" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC145" s="34">
+      <c r="AC145" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16741,10 +16738,10 @@
       <c r="M146" s="32">
         <v>2</v>
       </c>
-      <c r="N146" s="33">
+      <c r="N146" s="32">
         <v>195</v>
       </c>
-      <c r="O146" s="33">
+      <c r="O146" s="32">
         <v>0</v>
       </c>
       <c r="P146" s="32" t="s">
@@ -16786,7 +16783,7 @@
       <c r="AB146" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC146" s="34">
+      <c r="AC146" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16830,10 +16827,10 @@
       <c r="M147" s="32">
         <v>0.5</v>
       </c>
-      <c r="N147" s="33">
+      <c r="N147" s="32">
         <v>196</v>
       </c>
-      <c r="O147" s="33">
+      <c r="O147" s="32">
         <v>0</v>
       </c>
       <c r="P147" s="32" t="s">
@@ -16875,7 +16872,7 @@
       <c r="AB147" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC147" s="34">
+      <c r="AC147" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16919,10 +16916,10 @@
       <c r="M148" s="32">
         <v>5</v>
       </c>
-      <c r="N148" s="33">
+      <c r="N148" s="32">
         <v>197</v>
       </c>
-      <c r="O148" s="33">
+      <c r="O148" s="32">
         <v>0</v>
       </c>
       <c r="P148" s="32" t="s">
@@ -16964,7 +16961,7 @@
       <c r="AB148" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC148" s="34">
+      <c r="AC148" s="33">
         <v>0</v>
       </c>
     </row>
@@ -17008,10 +17005,10 @@
       <c r="M149" s="32">
         <v>5</v>
       </c>
-      <c r="N149" s="33">
+      <c r="N149" s="32">
         <v>198</v>
       </c>
-      <c r="O149" s="33">
+      <c r="O149" s="32">
         <v>0</v>
       </c>
       <c r="P149" s="32" t="s">
@@ -17053,7 +17050,7 @@
       <c r="AB149" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC149" s="34">
+      <c r="AC149" s="33">
         <v>0</v>
       </c>
     </row>
@@ -17097,10 +17094,10 @@
       <c r="M150" s="32">
         <v>1</v>
       </c>
-      <c r="N150" s="33">
+      <c r="N150" s="32">
         <v>199</v>
       </c>
-      <c r="O150" s="33">
+      <c r="O150" s="32">
         <v>0</v>
       </c>
       <c r="P150" s="32" t="s">
@@ -17142,7 +17139,7 @@
       <c r="AB150" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC150" s="34">
+      <c r="AC150" s="33">
         <v>0</v>
       </c>
     </row>
@@ -17186,10 +17183,10 @@
       <c r="M151" s="32">
         <v>0.5</v>
       </c>
-      <c r="N151" s="33">
+      <c r="N151" s="32">
         <v>200</v>
       </c>
-      <c r="O151" s="33">
+      <c r="O151" s="32">
         <v>0</v>
       </c>
       <c r="P151" s="32" t="s">
@@ -17231,7 +17228,7 @@
       <c r="AB151" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="AC151" s="34">
+      <c r="AC151" s="33">
         <v>0</v>
       </c>
     </row>
